--- a/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2026/Xuất kho/Tháng 01/XKBH_GPSGlobal_160126.xlsx
+++ b/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2026/Xuất kho/Tháng 01/XKBH_GPSGlobal_160126.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="PhieuXuatKho" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PhieuXuatKho!$A$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PhieuXuatKho!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Tên Khách hàng: Đại lý GPS Global</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 16 tháng 01 năm 2026</t>
-  </si>
-  <si>
     <t>VNSH02</t>
   </si>
   <si>
@@ -111,14 +108,7 @@
     <t>Model / Linh Kiện</t>
   </si>
   <si>
-    <t>VT_Khay SIM 
-C43 - Nano SIM 7 PIN</t>
-  </si>
-  <si>
-    <t>Thay thế linh kiện hết bảo hành có tính phí lỗi khay sim</t>
-  </si>
-  <si>
-    <t>ID: 0032004077</t>
+    <t>Hà Nội, ngày 20 tháng 01 năm 2026</t>
   </si>
 </sst>
 </file>
@@ -366,7 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -438,6 +428,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -457,9 +471,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -476,30 +487,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -857,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -880,86 +867,86 @@
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="24"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="4"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="4"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -969,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>1</v>
@@ -986,107 +973,89 @@
       <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>1</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="E10" s="47">
-        <v>130000</v>
-      </c>
+      <c r="E10" s="26"/>
       <c r="F10" s="26" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" s="25" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+        <v>26</v>
+      </c>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="46">
-        <v>1</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="45"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
+      <c r="B14" s="30"/>
+      <c r="C14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="B15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -1102,97 +1071,91 @@
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="42" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="33" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="8" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G30" s="6"/>
-    </row>
-    <row r="33" spans="7:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="G33" s="6"/>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="G32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="1.1023622047244095" right="0.82677165354330717" top="0.98425196850393704" bottom="0.98425196850393704" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="105" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>